--- a/Leçon chimie/LC 13/Expériences LC 13.xlsx
+++ b/Leçon chimie/LC 13/Expériences LC 13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="0" windowWidth="25120" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Etude de l'acide éthanoïque " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t xml:space="preserve">Comparaison des coefficients de dissociation </t>
   </si>
@@ -115,33 +115,25 @@
     <t>u(pKa)</t>
   </si>
   <si>
-    <t>Préparation des solutions d'acide éthanoïque à 10-2 et 10-3 mol/L  : c0=Vm.Cm/V0</t>
-  </si>
-  <si>
     <t>CH3COOH à 10-2 mol/L</t>
   </si>
   <si>
     <t>CH3COOH à 10-3 mol/L</t>
   </si>
   <si>
-    <t>σ (S.m-1) mes*10^2</t>
-  </si>
-  <si>
-    <r>
-      <t>ENORME ATTENTION :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en rouge je ne sais plus pq j'ai mis un facteur 10^2, il faut que la conductivité soit exprimée en S.m-1, voilà tout, si tel est le cas on supprime le facteur 10^2. qui provient surement de calibration ….  </t>
-    </r>
-  </si>
-  <si>
     <t>Incertitudes</t>
+  </si>
+  <si>
+    <t>Solution dont on dispose</t>
+  </si>
+  <si>
+    <t>CH3COOH à 10-1 mol/L</t>
+  </si>
+  <si>
+    <t>Préparation par DILUTION des solutions d'acide éthanoïque à 10-2 et 10-3 mol/L  : c0=Vm.Cm/V0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σ (mS.m-1) </t>
   </si>
 </sst>
 </file>
@@ -151,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,18 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -233,7 +213,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +230,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,9 +368,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,20 +388,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -457,16 +441,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -489,7 +473,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="203200"/>
+          <a:off x="5880100" y="1409700"/>
           <a:ext cx="5270500" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -824,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -835,29 +819,35 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="D3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -865,7 +855,7 @@
         <v>32.56</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -873,7 +863,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -881,19 +871,19 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:19">
+    <row r="8" spans="1:9">
+      <c r="B8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -919,9 +909,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
         <v>0.02</v>
@@ -949,9 +939,9 @@
         <v>1.6770509831248423E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3">
         <v>2E-3</v>
@@ -979,24 +969,24 @@
         <v>3.0923292192132459E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:9">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:9">
+      <c r="B14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -1015,24 +1005,10 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <f>10^-2</f>
@@ -1043,36 +1019,23 @@
         <v>1.6770509831248423E-5</v>
       </c>
       <c r="D16" s="3">
-        <f>0.1613*10^2</f>
-        <v>16.13</v>
+        <v>14.97</v>
       </c>
       <c r="E16" s="3">
         <v>0.01</v>
       </c>
       <c r="F16" s="8">
         <f>D16/(1000*B16*($B$4+$B$5))</f>
-        <v>4.4558011049723754E-2</v>
+        <v>4.1353591160220998E-2</v>
       </c>
       <c r="G16" s="3">
         <f>F16*((C16/B16)^2+(E16/D16)^2)^0.5</f>
-        <v>7.9668600779346461E-5</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1">
+        <v>7.46512797502056E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>1E-3</v>
@@ -1082,97 +1045,33 @@
         <v>3.0923292192132459E-6</v>
       </c>
       <c r="D17" s="3">
-        <f>0.0503*10^2</f>
-        <v>5.0299999999999994</v>
+        <v>4.71</v>
       </c>
       <c r="E17" s="3">
         <v>0.01</v>
       </c>
       <c r="F17" s="3">
         <f>D17/(1000*B17*($B$4+$B$5))</f>
-        <v>0.13895027624309389</v>
+        <v>0.13011049723756904</v>
       </c>
       <c r="G17" s="3">
         <f>F17*(((C17/B17)^2)+((E17/D17)^2))^0.5</f>
-        <v>5.1081811703434729E-4</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="11" t="s">
+        <v>4.8804849907723612E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1"/>
+    <row r="19" spans="1:7" ht="15" customHeight="1"/>
+    <row r="20" spans="1:7" ht="15" customHeight="1"/>
+    <row r="21" spans="1:7" ht="15" customHeight="1">
+      <c r="B21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1188,90 +1087,54 @@
       <c r="F22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-    </row>
-    <row r="23" spans="1:19">
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>0.01</v>
       </c>
       <c r="C23" s="3">
         <f>(B16*F16*F16)/(1-F16)</f>
-        <v>2.0780082638911848E-5</v>
+        <v>1.783889749210467E-5</v>
       </c>
       <c r="D23" s="3">
         <f>C23*((C16/B16)^2+(G16/(F16*(1-F16)))^2)^0.5</f>
-        <v>5.2217514831897529E-8</v>
+        <v>4.4982463403986836E-8</v>
       </c>
       <c r="E23" s="3">
         <f>-LOG10(C23)</f>
-        <v>4.6823527296589162</v>
+        <v>4.7486319900883194</v>
       </c>
       <c r="F23" s="3">
         <f>D23/C23</f>
-        <v>2.5128636752443593E-3</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="24" spans="1:19">
+        <v>2.5215943655652294E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>1E-3</v>
       </c>
       <c r="C24" s="3">
         <f>(B17*F17*F17)/(1-F17)</f>
-        <v>2.2422838931753676E-5</v>
+        <v>1.9460795236232141E-5</v>
       </c>
       <c r="D24" s="3">
         <f>C24*((C17/B17)^2+(G17/(F17*(1-F17)))^2)^0.5</f>
-        <v>1.1820742850732097E-7</v>
+        <v>1.0326425374766176E-7</v>
       </c>
       <c r="E24" s="3">
         <f>-LOG10(C24)</f>
-        <v>4.649309402698151</v>
+        <v>4.7108394169119174</v>
       </c>
       <c r="F24" s="3">
         <f>D24/C24</f>
-        <v>5.2717423011019258E-3</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
+        <v>5.306271017918333E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
@@ -1312,10 +1175,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H15:M24"/>
-    <mergeCell ref="N15:S24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B14:G14"/>
@@ -1336,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1348,96 +1209,92 @@
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>8.1000000000000003E-2</v>
-      </c>
       <c r="C4" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>5.1999999999999998E-2</v>
-      </c>
       <c r="C5" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="18">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="C6" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19">
+      <c r="C8" s="14">
         <v>7</v>
       </c>
-      <c r="C8" s="20">
+      <c r="D8" s="15">
         <v>0.1</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="15"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="9" spans="2:5">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7">
-        <f>B8+LOG10((B4-B5)/(B5-B6))</f>
-        <v>7.0152399665567371</v>
-      </c>
-      <c r="C10" s="16">
-        <f>C8+(1/LN(10))*(C4/(B4-B6)+C5/(B6-B5)+C6*((B4-B5)/((B6-B5)*(B4-B6))))</f>
-        <v>9.9842173684521376E-2</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="E11" s="17"/>
+      <c r="C10" s="7">
+        <f>C8+LOG10((C4-C5)/(C5-C6))</f>
+        <v>6.9098233696509119</v>
+      </c>
+      <c r="D10" s="11">
+        <f>D8+(1/LN(10))*(D4/(C4-C6)+D5/(C6-C5)+D6*((C4-C5)/((C6-C5)*(C4-C6))))</f>
+        <v>7.5664533341628135E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
